--- a/data/galamsay_data.xlsx
+++ b/data/galamsay_data.xlsx
@@ -292,13 +292,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -616,7 +616,7 @@
     <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -671,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -693,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -715,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -781,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -792,7 +792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -803,7 +803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
